--- a/KIK01 ケース内配線.xlsx
+++ b/KIK01 ケース内配線.xlsx
@@ -25,10 +25,6 @@
     <rPh sb="10" eb="12">
       <t>ハイセン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2017.11.15</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -61,6 +57,10 @@
     <rPh sb="1" eb="3">
       <t>イロワ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017.11.17</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -138,13 +138,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -194,13 +194,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -258,13 +258,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -314,13 +314,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -370,13 +370,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -430,13 +430,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -488,13 +488,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -546,13 +546,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -604,13 +604,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -663,13 +663,13 @@
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -678,7 +678,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7600950" y="1885950"/>
+          <a:off x="7000875" y="2057401"/>
           <a:ext cx="600075" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -736,7 +736,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8401050" y="1885950"/>
+          <a:off x="7800975" y="2057400"/>
           <a:ext cx="600075" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -776,16 +776,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>200023</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>200023</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -794,7 +794,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7600950" y="2571750"/>
+          <a:off x="7000873" y="2743199"/>
           <a:ext cx="600075" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -836,14 +836,14 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -852,7 +852,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8401050" y="2571750"/>
+          <a:off x="7800975" y="2743199"/>
           <a:ext cx="600075" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -894,14 +894,14 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -910,7 +910,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7600950" y="3257550"/>
+          <a:off x="7000875" y="3600449"/>
           <a:ext cx="600075" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -959,14 +959,14 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -975,7 +975,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8401050" y="3257550"/>
+          <a:off x="7800975" y="3600449"/>
           <a:ext cx="600075" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1024,7 +1024,7 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -1040,8 +1040,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7400925" y="2914652"/>
-          <a:ext cx="247650" cy="857248"/>
+          <a:off x="6600825" y="3429002"/>
+          <a:ext cx="247650" cy="685798"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1069,10 +1069,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>A±5V</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1082,13 +1082,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1140,13 +1140,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1198,13 +1198,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1256,13 +1256,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1314,13 +1314,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1372,13 +1372,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>171447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>100010</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>171447</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1430,13 +1430,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1486,14 +1486,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200021</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200021</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1504,7 +1504,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2000250" y="2743200"/>
+          <a:off x="1000121" y="2914650"/>
           <a:ext cx="600075" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1544,16 +1544,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1562,7 +1562,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="1885950"/>
+          <a:off x="4800600" y="2400300"/>
           <a:ext cx="600075" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1604,13 +1604,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1662,14 +1662,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1678,7 +1678,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3200400" y="3257550"/>
+          <a:off x="2200275" y="3943348"/>
           <a:ext cx="600075" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1718,14 +1718,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200021</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200021</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1736,7 +1736,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2000250" y="2228850"/>
+          <a:off x="1000121" y="2400300"/>
           <a:ext cx="600075" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1778,13 +1778,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1794,7 +1794,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3200400" y="2743200"/>
+          <a:off x="2200275" y="3429000"/>
           <a:ext cx="600075" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1834,16 +1834,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200023</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>171448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200023</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1852,7 +1852,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2000250" y="3257550"/>
+          <a:off x="1000123" y="3943348"/>
           <a:ext cx="600075" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1894,14 +1894,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1910,7 +1910,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3200400" y="2228850"/>
+          <a:off x="2200275" y="2914649"/>
           <a:ext cx="600075" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1952,13 +1952,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2010,13 +2010,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2029,12 +2029,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3800475" y="3429000"/>
-          <a:ext cx="1000125" cy="2314575"/>
+          <a:off x="2800350" y="4114798"/>
+          <a:ext cx="1000125" cy="1971677"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 40476"/>
+            <a:gd name="adj1" fmla="val 39524"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2063,12 +2063,12 @@
       <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2081,12 +2081,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8801100" y="2828925"/>
-          <a:ext cx="200025" cy="3581400"/>
+          <a:off x="8201025" y="3000374"/>
+          <a:ext cx="200025" cy="4095751"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 300001"/>
+            <a:gd name="adj1" fmla="val 290477"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2114,13 +2114,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2172,13 +2172,13 @@
     <xdr:from>
       <xdr:col>58</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2230,13 +2230,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2286,15 +2286,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2304,7 +2304,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5000625" y="514350"/>
+          <a:off x="4800600" y="857250"/>
           <a:ext cx="600075" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2353,13 +2353,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2377,7 +2377,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 45455"/>
+            <a:gd name="adj1" fmla="val 36869"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2405,13 +2405,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>100014</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>171448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>100014</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2457,13 +2457,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2515,13 +2515,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2573,26 +2573,27 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>100014</xdr:colOff>
+      <xdr:colOff>100013</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="86" name="Straight Arrow Connector 85"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="14" idx="0"/>
+          <a:endCxn id="70" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8101013" y="1028700"/>
-          <a:ext cx="1" cy="857250"/>
+          <a:off x="7300913" y="1371600"/>
+          <a:ext cx="0" cy="857251"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2622,7 +2623,7 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -2636,11 +2637,12 @@
         <xdr:cNvPr id="88" name="Straight Arrow Connector 87"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="0"/>
+          <a:endCxn id="72" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8901113" y="1028700"/>
+          <a:off x="8101013" y="1371600"/>
           <a:ext cx="0" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2669,15 +2671,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2685,12 +2687,13 @@
         <xdr:cNvPr id="90" name="Straight Arrow Connector 89"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="73" idx="2"/>
+          <a:endCxn id="30" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5300663" y="1028700"/>
-          <a:ext cx="0" cy="857250"/>
+          <a:off x="5100638" y="1371600"/>
+          <a:ext cx="0" cy="1028700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2718,110 +2721,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="Shape 99"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="4800602" y="1885950"/>
-          <a:ext cx="200024" cy="1028700"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>100014</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="106" name="Shape 105"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="34" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="2300289" y="2057400"/>
-          <a:ext cx="2500313" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2834,8 +2742,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3800475" y="857250"/>
-          <a:ext cx="12700" cy="2057400"/>
+          <a:off x="2800350" y="1200150"/>
+          <a:ext cx="12700" cy="2400300"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2865,68 +2773,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="Elbow Connector 52"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="36" idx="2"/>
-          <a:endCxn id="18" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5014913" y="885825"/>
-          <a:ext cx="171450" cy="5600700"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 300000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2938,13 +2794,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3800475" y="2400300"/>
-          <a:ext cx="5100638" cy="1371600"/>
+          <a:off x="2800350" y="3086099"/>
+          <a:ext cx="5300663" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 11765"/>
-            <a:gd name="adj2" fmla="val 136806"/>
+            <a:gd name="adj1" fmla="val 11231"/>
+            <a:gd name="adj2" fmla="val 200000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2972,13 +2828,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>50005</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>3</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>200023</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>171448</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3018,14 +2874,14 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3037,8 +2893,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6400800" y="2914649"/>
-          <a:ext cx="1200150" cy="257177"/>
+          <a:off x="5400675" y="3771899"/>
+          <a:ext cx="1200150" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3071,12 +2927,12 @@
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>200023</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3088,8 +2944,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="6700837" y="3328988"/>
-          <a:ext cx="1800226" cy="800100"/>
+          <a:off x="5529261" y="3671888"/>
+          <a:ext cx="2143126" cy="800098"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3118,8 +2974,8 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>200020</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -3138,8 +2994,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1">
-          <a:off x="2000249" y="857250"/>
-          <a:ext cx="600075" cy="2057400"/>
+          <a:off x="1000120" y="1200150"/>
+          <a:ext cx="600079" cy="1885950"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3171,13 +3027,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3227,16 +3083,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3245,24 +3101,24 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5800725" y="514350"/>
-          <a:ext cx="800100" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
+          <a:off x="3600450" y="857250"/>
+          <a:ext cx="1000125" cy="171451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -3275,14 +3131,11 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
-            <a:t>To Rhythm  Machine</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
-            <a:t>+6V</a:t>
+            <a:t>R</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050" baseline="0"/>
+            <a:t> Machine</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
         </a:p>
@@ -3292,15 +3145,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3308,16 +3161,18 @@
         <xdr:cNvPr id="156" name="Shape 155"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="153" idx="3"/>
-          <a:endCxn id="154" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5600700" y="1028700"/>
-          <a:ext cx="600075" cy="1371600"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4400550" y="1371601"/>
+          <a:ext cx="200025" cy="1885949"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -57143"/>
+            <a:gd name="adj2" fmla="val 54545"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -3344,13 +3199,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3398,13 +3253,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3452,13 +3307,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3506,13 +3361,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3554,6 +3409,549 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Rectangle 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200275" y="2400299"/>
+          <a:ext cx="600075" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ADC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="Rectangle 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="2400300"/>
+          <a:ext cx="600075" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Mon</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="Elbow Connector 92"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="83" idx="1"/>
+          <a:endCxn id="77" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2800350" y="2571750"/>
+          <a:ext cx="1200150" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="Rectangle 124"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2212975" y="1885950"/>
+          <a:ext cx="600075" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+            <a:t>GPIO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="Rectangle 128"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="1028700"/>
+          <a:ext cx="400050" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+            <a:t>+5V</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="Rectangle 129"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="1028701"/>
+          <a:ext cx="600075" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+            <a:t>Sync</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="Elbow Connector 137"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="130" idx="1"/>
+          <a:endCxn id="125" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2813050" y="1200150"/>
+          <a:ext cx="787400" cy="1028699"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25806"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>100011</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="152" name="Elbow Connector 151"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="2"/>
+          <a:endCxn id="18" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4129087" y="1285873"/>
+          <a:ext cx="342899" cy="6000752"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -102779"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200021</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="164" name="Elbow Connector 163"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="34" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1000121" y="2743201"/>
+          <a:ext cx="2800354" cy="2400301"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 121088"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="171" name="Shape 170"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3800475" y="3771900"/>
+          <a:ext cx="200026" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3844,47 +4242,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:F38"/>
+  <dimension ref="D2:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AT45"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AT46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="3" spans="4:4">
-      <c r="D3" s="1" t="s">
+    <row r="2" spans="4:4">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="4:4">
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6">
-      <c r="D34" s="1" t="s">
+    <row r="3" spans="4:4">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="4:6">
-      <c r="F35" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="36" spans="4:6">
-      <c r="F36" t="s">
-        <v>3</v>
+      <c r="D36" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="4:6">
       <c r="F37" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="4:6">
       <c r="F38" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6">
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6">
+      <c r="F40" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/KIK01 ケース内配線.xlsx
+++ b/KIK01 ケース内配線.xlsx
@@ -60,7 +60,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2017.11.17</t>
+    <t>2017.12.14</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1196,64 +1196,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rectangle 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8401050" y="9086850"/>
-          <a:ext cx="600075" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Wave OUT</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
@@ -1950,16 +1892,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1968,7 +1910,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3200400" y="685800"/>
+          <a:off x="1400175" y="857251"/>
           <a:ext cx="600075" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2034,7 +1976,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 39524"/>
+            <a:gd name="adj1" fmla="val 40476"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2170,64 +2112,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="Rectangle 70"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12401550" y="857250"/>
-          <a:ext cx="600075" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
-            <a:t>PotX8</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -2455,13 +2339,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2473,7 +2357,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2600325" y="685800"/>
+          <a:off x="800100" y="857250"/>
           <a:ext cx="600075" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2513,16 +2397,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>187320</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2531,8 +2415,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2600325" y="514350"/>
-          <a:ext cx="1200150" cy="171450"/>
+          <a:off x="787395" y="685801"/>
+          <a:ext cx="1212855" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2721,34 +2605,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="108" name="Elbow Connector 107"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="3"/>
-          <a:endCxn id="41" idx="3"/>
+          <a:stCxn id="35" idx="1"/>
+          <a:endCxn id="41" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2800350" y="1200150"/>
-          <a:ext cx="12700" cy="2400300"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 3150001"/>
-          </a:avLst>
+        <a:xfrm rot="10800000">
+          <a:off x="1700213" y="1200152"/>
+          <a:ext cx="500062" cy="2400299"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -2826,28 +2708,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>50005</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>100010</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>3</xdr:rowOff>
+      <xdr:rowOff>4</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>200023</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>171448</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85722</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="116" name="Shape 115"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="27" idx="0"/>
+          <a:stCxn id="27" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="6568679" y="4339829"/>
-          <a:ext cx="514345" cy="750093"/>
+        <a:xfrm flipV="1">
+          <a:off x="5700710" y="5143504"/>
+          <a:ext cx="300040" cy="942968"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2924,16 +2806,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>200023</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>4</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2944,8 +2826,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="5529261" y="3671888"/>
-          <a:ext cx="2143126" cy="800098"/>
+          <a:off x="5429247" y="3571878"/>
+          <a:ext cx="2143129" cy="1000123"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2963,58 +2845,6 @@
         </a:fillRef>
         <a:effectRef idx="1">
           <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200020</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="145" name="Elbow Connector 144"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="29" idx="1"/>
-          <a:endCxn id="81" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1">
-          <a:off x="1000120" y="1200150"/>
-          <a:ext cx="600079" cy="1885950"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -65079"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3197,15 +3027,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3215,7 +3045,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="6000750"/>
+          <a:off x="9001125" y="857250"/>
           <a:ext cx="400050" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3251,15 +3081,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3305,15 +3135,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3359,15 +3189,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3781,7 +3611,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 25806"/>
+            <a:gd name="adj1" fmla="val 39311"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3946,6 +3776,327 @@
         </a:fillRef>
         <a:effectRef idx="1">
           <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200021</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="Straight Connector 114"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="600075" y="3086100"/>
+          <a:ext cx="400046" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="Rectangle 120"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2212975" y="685800"/>
+          <a:ext cx="600075" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+            <a:t>Sync</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+            <a:t>Out</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="Shape 130"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="81" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="-328612" y="1957388"/>
+          <a:ext cx="2057399" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>112713</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>112713</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="Straight Arrow Connector 132"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="125" idx="0"/>
+          <a:endCxn id="121" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2513013" y="1200150"/>
+          <a:ext cx="0" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="Rectangle 135"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="5314950"/>
+          <a:ext cx="1200150" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Monitor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> LEDs</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12701</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="Shape 139"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="125" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2000251" y="2057400"/>
+          <a:ext cx="212725" cy="3257550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -4242,53 +4393,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D2:F40"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="D2:AX9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AT46"/>
+      <selection sqref="A1:BB47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="4:4">
+    <row r="2" spans="4:50">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:4">
+    <row r="3" spans="4:50">
       <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="4:6">
-      <c r="D36" s="1" t="s">
+    <row r="5" spans="4:50">
+      <c r="AV5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="4:6">
-      <c r="F37" t="s">
+    <row r="6" spans="4:50">
+      <c r="AX6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="4:6">
-      <c r="F38" t="s">
+    <row r="7" spans="4:50">
+      <c r="AX7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="4:6">
-      <c r="F39" t="s">
+    <row r="8" spans="4:50">
+      <c r="AX8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="4:6">
-      <c r="F40" t="s">
+    <row r="9" spans="4:50">
+      <c r="AX9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F&amp;C&amp;P&amp;R&amp;D &amp;T</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
